--- a/TestData/pythonExcel.xlsx
+++ b/TestData/pythonExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F64760A7-4C0F-4EE2-9A80-09409DBB2951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A034ACC-5F02-4801-A090-F7A94B71C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -44,6 +44,9 @@
     <t>password</t>
   </si>
   <si>
+    <t>gender</t>
+  </si>
+  <si>
     <t>Testcase1</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>BadPassword</t>
   </si>
   <si>
+    <t>Male</t>
+  </si>
+  <si>
     <t>Testcase2</t>
   </si>
   <si>
@@ -87,6 +93,24 @@
   </si>
   <si>
     <t>la_password</t>
+  </si>
+  <si>
+    <t>Testcase4</t>
+  </si>
+  <si>
+    <t>Estefania</t>
+  </si>
+  <si>
+    <t>Corso</t>
+  </si>
+  <si>
+    <t>leclub_2006@gmail.com</t>
+  </si>
+  <si>
+    <t>su_password</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -449,15 +473,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="40.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,56 +500,88 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -530,6 +589,7 @@
     <hyperlink ref="D2" r:id="rId1" xr:uid="{2A75555F-79C5-4B55-8AA5-283C8D22385C}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{32F694EF-4756-475C-B790-D35478F820E6}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{904558D2-D960-4443-BA15-71F5B81C90A0}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{F8644DD8-A832-4C15-83F3-D6861D991EE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TestData/pythonExcel.xlsx
+++ b/TestData/pythonExcel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25425"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A034ACC-5F02-4801-A090-F7A94B71C1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82E1D0F1-562E-427D-A7A7-62628AA1C6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Name</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>Testcase5</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>eclub_dumas@gmail.com</t>
+  </si>
+  <si>
+    <t>pasword_corso</t>
   </si>
 </sst>
 </file>
@@ -473,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,12 +596,33 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{2A75555F-79C5-4B55-8AA5-283C8D22385C}"/>
     <hyperlink ref="D3" r:id="rId2" xr:uid="{32F694EF-4756-475C-B790-D35478F820E6}"/>
     <hyperlink ref="D4" r:id="rId3" xr:uid="{904558D2-D960-4443-BA15-71F5B81C90A0}"/>
     <hyperlink ref="D5" r:id="rId4" xr:uid="{F8644DD8-A832-4C15-83F3-D6861D991EE2}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{72C63E4B-A5DC-44D8-BB93-FD93FD02038B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
